--- a/Input_Data_Sheets/Rainfall_Intensity_Data.xlsx
+++ b/Input_Data_Sheets/Rainfall_Intensity_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B84FBB1E-6657-44CB-9FFA-B971158DDA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{871A19D3-4825-45C1-96B8-B4CD7AA19CC3}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{B84FBB1E-6657-44CB-9FFA-B971158DDA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25FCD903-1ECF-4A2B-85A9-6E8026DE2ECC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:K8758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -996,7 +996,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6">
         <v>50</v>
@@ -1005,7 +1005,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
@@ -1014,7 +1014,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="C6" s="6">
         <v>50</v>
@@ -1023,7 +1023,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="C7" s="6">
         <v>50</v>
@@ -1032,7 +1032,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C8" s="6">
         <v>50</v>
@@ -1041,7 +1041,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="C9" s="6">
         <v>50</v>
@@ -1050,7 +1050,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6">
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="C10" s="6">
         <v>50</v>
@@ -1059,7 +1059,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="C11" s="6">
         <v>50</v>
@@ -1068,7 +1068,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6">
-        <v>45</v>
+        <v>540</v>
       </c>
       <c r="C12" s="6">
         <v>50</v>
@@ -1077,7 +1077,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="C13" s="6">
         <v>50</v>
@@ -1087,7 +1087,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6">
-        <v>55</v>
+        <v>660</v>
       </c>
       <c r="C14" s="6">
         <v>50</v>
@@ -1096,7 +1096,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6">
-        <v>60</v>
+        <v>720</v>
       </c>
       <c r="C15" s="6">
         <v>50</v>

--- a/Input_Data_Sheets/Rainfall_Intensity_Data.xlsx
+++ b/Input_Data_Sheets/Rainfall_Intensity_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\Documents\GitHub\HydroPol2D\Input_Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{B84FBB1E-6657-44CB-9FFA-B971158DDA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25FCD903-1ECF-4A2B-85A9-6E8026DE2ECC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A358AD-2F6F-4B2D-B811-3E79037FAC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:K8758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
         <v>240</v>
       </c>
       <c r="C7" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>360</v>
       </c>
       <c r="C9" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>420</v>
       </c>
       <c r="C10" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>480</v>
       </c>
       <c r="C11" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>540</v>
       </c>
       <c r="C12" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>600</v>
       </c>
       <c r="C13" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K13" s="8"/>
     </row>
@@ -1090,7 +1090,7 @@
         <v>660</v>
       </c>
       <c r="C14" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1099,68 +1099,116 @@
         <v>720</v>
       </c>
       <c r="C15" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="6">
+        <v>780</v>
+      </c>
+      <c r="C16" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="6">
+        <v>840</v>
+      </c>
+      <c r="C17" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="6">
+        <v>900</v>
+      </c>
+      <c r="C18" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="6">
+        <v>960</v>
+      </c>
+      <c r="C19" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="6">
+        <v>1020</v>
+      </c>
+      <c r="C20" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="6">
+        <v>1080</v>
+      </c>
+      <c r="C21" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="6">
+        <v>1140</v>
+      </c>
+      <c r="C22" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C23" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="6">
+        <v>1260</v>
+      </c>
+      <c r="C24" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="6">
+        <v>1320</v>
+      </c>
+      <c r="C25" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="6">
+        <v>1380</v>
+      </c>
+      <c r="C26" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="6">
+        <v>1440</v>
+      </c>
+      <c r="C27" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
